--- a/data/cs_balance_sheet.xlsx
+++ b/data/cs_balance_sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="13">
   <si>
     <t>Instrument</t>
   </si>
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1510"/>
+  <dimension ref="A1:G1760"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17107,6 +17107,2756 @@
         <v>45129000000</v>
       </c>
     </row>
+    <row r="1511" spans="1:7">
+      <c r="A1511" s="1">
+        <v>1509</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1511">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:7">
+      <c r="A1512" s="1">
+        <v>1510</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1512">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:7">
+      <c r="A1513" s="1">
+        <v>1511</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1513">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:7">
+      <c r="A1514" s="1">
+        <v>1512</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1514">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:7">
+      <c r="A1515" s="1">
+        <v>1513</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1515">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:7">
+      <c r="A1516" s="1">
+        <v>1514</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1516">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:7">
+      <c r="A1517" s="1">
+        <v>1515</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1517">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:7">
+      <c r="A1518" s="1">
+        <v>1516</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1518">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:7">
+      <c r="A1519" s="1">
+        <v>1517</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1519">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:7">
+      <c r="A1520" s="1">
+        <v>1518</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1520">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:7">
+      <c r="A1521" s="1">
+        <v>1519</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1521">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:7">
+      <c r="A1522" s="1">
+        <v>1520</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1522">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:7">
+      <c r="A1523" s="1">
+        <v>1521</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1523">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:7">
+      <c r="A1524" s="1">
+        <v>1522</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1524">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:7">
+      <c r="A1525" s="1">
+        <v>1523</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1525">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:7">
+      <c r="A1526" s="1">
+        <v>1524</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1526">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:7">
+      <c r="A1527" s="1">
+        <v>1525</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1527">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:7">
+      <c r="A1528" s="1">
+        <v>1526</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1528">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:7">
+      <c r="A1529" s="1">
+        <v>1527</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1529">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:7">
+      <c r="A1530" s="1">
+        <v>1528</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1530">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:7">
+      <c r="A1531" s="1">
+        <v>1529</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1531">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:7">
+      <c r="A1532" s="1">
+        <v>1530</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1532">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:7">
+      <c r="A1533" s="1">
+        <v>1531</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1533">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:7">
+      <c r="A1534" s="1">
+        <v>1532</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1534">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:7">
+      <c r="A1535" s="1">
+        <v>1533</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1535">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:7">
+      <c r="A1536" s="1">
+        <v>1534</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1536">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:7">
+      <c r="A1537" s="1">
+        <v>1535</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1537">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:7">
+      <c r="A1538" s="1">
+        <v>1536</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1538">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:7">
+      <c r="A1539" s="1">
+        <v>1537</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1539">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:7">
+      <c r="A1540" s="1">
+        <v>1538</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1540">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:7">
+      <c r="A1541" s="1">
+        <v>1539</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1541">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:7">
+      <c r="A1542" s="1">
+        <v>1540</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1542">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:7">
+      <c r="A1543" s="1">
+        <v>1541</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1543">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:7">
+      <c r="A1544" s="1">
+        <v>1542</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1544">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:7">
+      <c r="A1545" s="1">
+        <v>1543</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1545">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:7">
+      <c r="A1546" s="1">
+        <v>1544</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1546">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:7">
+      <c r="A1547" s="1">
+        <v>1545</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1547">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:7">
+      <c r="A1548" s="1">
+        <v>1546</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1548">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:7">
+      <c r="A1549" s="1">
+        <v>1547</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1549">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:7">
+      <c r="A1550" s="1">
+        <v>1548</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1550">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:7">
+      <c r="A1551" s="1">
+        <v>1549</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1551">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:7">
+      <c r="A1552" s="1">
+        <v>1550</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1552">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:7">
+      <c r="A1553" s="1">
+        <v>1551</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1553">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:7">
+      <c r="A1554" s="1">
+        <v>1552</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1554">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:7">
+      <c r="A1555" s="1">
+        <v>1553</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1555">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:7">
+      <c r="A1556" s="1">
+        <v>1554</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1556">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:7">
+      <c r="A1557" s="1">
+        <v>1555</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1557">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:7">
+      <c r="A1558" s="1">
+        <v>1556</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1558">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:7">
+      <c r="A1559" s="1">
+        <v>1557</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1559">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:7">
+      <c r="A1560" s="1">
+        <v>1558</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1560">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:7">
+      <c r="A1561" s="1">
+        <v>1559</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1561">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:7">
+      <c r="A1562" s="1">
+        <v>1560</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1562">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:7">
+      <c r="A1563" s="1">
+        <v>1561</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1563">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:7">
+      <c r="A1564" s="1">
+        <v>1562</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1564">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:7">
+      <c r="A1565" s="1">
+        <v>1563</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1565">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:7">
+      <c r="A1566" s="1">
+        <v>1564</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1566">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:7">
+      <c r="A1567" s="1">
+        <v>1565</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1567">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:7">
+      <c r="A1568" s="1">
+        <v>1566</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1568">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:7">
+      <c r="A1569" s="1">
+        <v>1567</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1569">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:7">
+      <c r="A1570" s="1">
+        <v>1568</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1570">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:7">
+      <c r="A1571" s="1">
+        <v>1569</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1571">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:7">
+      <c r="A1572" s="1">
+        <v>1570</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1572">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:7">
+      <c r="A1573" s="1">
+        <v>1571</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1573">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:7">
+      <c r="A1574" s="1">
+        <v>1572</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1574">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:7">
+      <c r="A1575" s="1">
+        <v>1573</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1575">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:7">
+      <c r="A1576" s="1">
+        <v>1574</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1576">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:7">
+      <c r="A1577" s="1">
+        <v>1575</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1577">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:7">
+      <c r="A1578" s="1">
+        <v>1576</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1578">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:7">
+      <c r="A1579" s="1">
+        <v>1577</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1579">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:7">
+      <c r="A1580" s="1">
+        <v>1578</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1580">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:7">
+      <c r="A1581" s="1">
+        <v>1579</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1581">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:7">
+      <c r="A1582" s="1">
+        <v>1580</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1582">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:7">
+      <c r="A1583" s="1">
+        <v>1581</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1583">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:7">
+      <c r="A1584" s="1">
+        <v>1582</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1584">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:7">
+      <c r="A1585" s="1">
+        <v>1583</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1585">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:7">
+      <c r="A1586" s="1">
+        <v>1584</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1586">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:7">
+      <c r="A1587" s="1">
+        <v>1585</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1587">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:7">
+      <c r="A1588" s="1">
+        <v>1586</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1588">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:7">
+      <c r="A1589" s="1">
+        <v>1587</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1589">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:7">
+      <c r="A1590" s="1">
+        <v>1588</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1590">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:7">
+      <c r="A1591" s="1">
+        <v>1589</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1591">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:7">
+      <c r="A1592" s="1">
+        <v>1590</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1592">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:7">
+      <c r="A1593" s="1">
+        <v>1591</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1593">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:7">
+      <c r="A1594" s="1">
+        <v>1592</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1594">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:7">
+      <c r="A1595" s="1">
+        <v>1593</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1595">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:7">
+      <c r="A1596" s="1">
+        <v>1594</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1596">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:7">
+      <c r="A1597" s="1">
+        <v>1595</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1597">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:7">
+      <c r="A1598" s="1">
+        <v>1596</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1598">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:7">
+      <c r="A1599" s="1">
+        <v>1597</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1599">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:7">
+      <c r="A1600" s="1">
+        <v>1598</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1600">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:7">
+      <c r="A1601" s="1">
+        <v>1599</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1601">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:7">
+      <c r="A1602" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1602">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:7">
+      <c r="A1603" s="1">
+        <v>1601</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1603">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:7">
+      <c r="A1604" s="1">
+        <v>1602</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1604">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:7">
+      <c r="A1605" s="1">
+        <v>1603</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1605">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:7">
+      <c r="A1606" s="1">
+        <v>1604</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1606">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:7">
+      <c r="A1607" s="1">
+        <v>1605</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1607">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:7">
+      <c r="A1608" s="1">
+        <v>1606</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1608">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:7">
+      <c r="A1609" s="1">
+        <v>1607</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1609">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:7">
+      <c r="A1610" s="1">
+        <v>1608</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1610">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:7">
+      <c r="A1611" s="1">
+        <v>1609</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1611">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:7">
+      <c r="A1612" s="1">
+        <v>1610</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1612">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:7">
+      <c r="A1613" s="1">
+        <v>1611</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1613">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:7">
+      <c r="A1614" s="1">
+        <v>1612</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1614">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:7">
+      <c r="A1615" s="1">
+        <v>1613</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1615">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:7">
+      <c r="A1616" s="1">
+        <v>1614</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1616">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:7">
+      <c r="A1617" s="1">
+        <v>1615</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1617">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:7">
+      <c r="A1618" s="1">
+        <v>1616</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1618">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:7">
+      <c r="A1619" s="1">
+        <v>1617</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1619">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:7">
+      <c r="A1620" s="1">
+        <v>1618</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1620">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:7">
+      <c r="A1621" s="1">
+        <v>1619</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1621">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:7">
+      <c r="A1622" s="1">
+        <v>1620</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1622">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:7">
+      <c r="A1623" s="1">
+        <v>1621</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1623">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:7">
+      <c r="A1624" s="1">
+        <v>1622</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1624">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:7">
+      <c r="A1625" s="1">
+        <v>1623</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1625">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:7">
+      <c r="A1626" s="1">
+        <v>1624</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1626">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:7">
+      <c r="A1627" s="1">
+        <v>1625</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1627">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:7">
+      <c r="A1628" s="1">
+        <v>1626</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1628">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:7">
+      <c r="A1629" s="1">
+        <v>1627</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1629">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:7">
+      <c r="A1630" s="1">
+        <v>1628</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1630">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:7">
+      <c r="A1631" s="1">
+        <v>1629</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1631">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:7">
+      <c r="A1632" s="1">
+        <v>1630</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1632">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:7">
+      <c r="A1633" s="1">
+        <v>1631</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1633">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:7">
+      <c r="A1634" s="1">
+        <v>1632</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1634">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:7">
+      <c r="A1635" s="1">
+        <v>1633</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1635">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:7">
+      <c r="A1636" s="1">
+        <v>1634</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1636">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:7">
+      <c r="A1637" s="1">
+        <v>1635</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1637">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:7">
+      <c r="A1638" s="1">
+        <v>1636</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1638">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:7">
+      <c r="A1639" s="1">
+        <v>1637</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1639">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:7">
+      <c r="A1640" s="1">
+        <v>1638</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1640">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:7">
+      <c r="A1641" s="1">
+        <v>1639</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1641">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:7">
+      <c r="A1642" s="1">
+        <v>1640</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1642">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:7">
+      <c r="A1643" s="1">
+        <v>1641</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1643">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:7">
+      <c r="A1644" s="1">
+        <v>1642</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1644">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:7">
+      <c r="A1645" s="1">
+        <v>1643</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1645">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:7">
+      <c r="A1646" s="1">
+        <v>1644</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1646">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:7">
+      <c r="A1647" s="1">
+        <v>1645</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1647">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:7">
+      <c r="A1648" s="1">
+        <v>1646</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1648">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:7">
+      <c r="A1649" s="1">
+        <v>1647</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1649">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:7">
+      <c r="A1650" s="1">
+        <v>1648</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1650">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:7">
+      <c r="A1651" s="1">
+        <v>1649</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1651">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:7">
+      <c r="A1652" s="1">
+        <v>1650</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1652">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:7">
+      <c r="A1653" s="1">
+        <v>1651</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1653">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:7">
+      <c r="A1654" s="1">
+        <v>1652</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1654">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:7">
+      <c r="A1655" s="1">
+        <v>1653</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1655">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:7">
+      <c r="A1656" s="1">
+        <v>1654</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1656">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:7">
+      <c r="A1657" s="1">
+        <v>1655</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1657">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:7">
+      <c r="A1658" s="1">
+        <v>1656</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1658">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:7">
+      <c r="A1659" s="1">
+        <v>1657</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1659">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:7">
+      <c r="A1660" s="1">
+        <v>1658</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1660">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:7">
+      <c r="A1661" s="1">
+        <v>1659</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1661">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:7">
+      <c r="A1662" s="1">
+        <v>1660</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1662">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:7">
+      <c r="A1663" s="1">
+        <v>1661</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1663">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:7">
+      <c r="A1664" s="1">
+        <v>1662</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1664">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:7">
+      <c r="A1665" s="1">
+        <v>1663</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1665">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:7">
+      <c r="A1666" s="1">
+        <v>1664</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1666">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:7">
+      <c r="A1667" s="1">
+        <v>1665</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1667">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:7">
+      <c r="A1668" s="1">
+        <v>1666</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1668">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:7">
+      <c r="A1669" s="1">
+        <v>1667</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1669">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:7">
+      <c r="A1670" s="1">
+        <v>1668</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1670">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:7">
+      <c r="A1671" s="1">
+        <v>1669</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1671">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:7">
+      <c r="A1672" s="1">
+        <v>1670</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1672">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:7">
+      <c r="A1673" s="1">
+        <v>1671</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1673">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:7">
+      <c r="A1674" s="1">
+        <v>1672</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1674">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:7">
+      <c r="A1675" s="1">
+        <v>1673</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1675">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:7">
+      <c r="A1676" s="1">
+        <v>1674</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1676">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:7">
+      <c r="A1677" s="1">
+        <v>1675</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1677">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:7">
+      <c r="A1678" s="1">
+        <v>1676</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1678">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:7">
+      <c r="A1679" s="1">
+        <v>1677</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1679">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:7">
+      <c r="A1680" s="1">
+        <v>1678</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1680">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:7">
+      <c r="A1681" s="1">
+        <v>1679</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1681">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:7">
+      <c r="A1682" s="1">
+        <v>1680</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1682">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:7">
+      <c r="A1683" s="1">
+        <v>1681</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1683">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:7">
+      <c r="A1684" s="1">
+        <v>1682</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1684">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:7">
+      <c r="A1685" s="1">
+        <v>1683</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1685">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:7">
+      <c r="A1686" s="1">
+        <v>1684</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1686">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:7">
+      <c r="A1687" s="1">
+        <v>1685</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1687">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:7">
+      <c r="A1688" s="1">
+        <v>1686</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1688">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:7">
+      <c r="A1689" s="1">
+        <v>1687</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1689">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:7">
+      <c r="A1690" s="1">
+        <v>1688</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1690">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:7">
+      <c r="A1691" s="1">
+        <v>1689</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1691">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:7">
+      <c r="A1692" s="1">
+        <v>1690</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1692">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:7">
+      <c r="A1693" s="1">
+        <v>1691</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1693">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:7">
+      <c r="A1694" s="1">
+        <v>1692</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1694">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:7">
+      <c r="A1695" s="1">
+        <v>1693</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1695">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:7">
+      <c r="A1696" s="1">
+        <v>1694</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1696">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:7">
+      <c r="A1697" s="1">
+        <v>1695</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1697">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:7">
+      <c r="A1698" s="1">
+        <v>1696</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1698">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:7">
+      <c r="A1699" s="1">
+        <v>1697</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1699">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:7">
+      <c r="A1700" s="1">
+        <v>1698</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1700">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:7">
+      <c r="A1701" s="1">
+        <v>1699</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1701">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:7">
+      <c r="A1702" s="1">
+        <v>1700</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1702">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:7">
+      <c r="A1703" s="1">
+        <v>1701</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1703">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:7">
+      <c r="A1704" s="1">
+        <v>1702</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1704">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:7">
+      <c r="A1705" s="1">
+        <v>1703</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1705">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:7">
+      <c r="A1706" s="1">
+        <v>1704</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1706">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:7">
+      <c r="A1707" s="1">
+        <v>1705</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1707">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:7">
+      <c r="A1708" s="1">
+        <v>1706</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1708">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:7">
+      <c r="A1709" s="1">
+        <v>1707</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1709">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:7">
+      <c r="A1710" s="1">
+        <v>1708</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1710">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:7">
+      <c r="A1711" s="1">
+        <v>1709</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1711">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:7">
+      <c r="A1712" s="1">
+        <v>1710</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1712">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:7">
+      <c r="A1713" s="1">
+        <v>1711</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1713">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:7">
+      <c r="A1714" s="1">
+        <v>1712</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1714">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:7">
+      <c r="A1715" s="1">
+        <v>1713</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1715">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:7">
+      <c r="A1716" s="1">
+        <v>1714</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1716">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:7">
+      <c r="A1717" s="1">
+        <v>1715</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1717">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:7">
+      <c r="A1718" s="1">
+        <v>1716</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1718">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:7">
+      <c r="A1719" s="1">
+        <v>1717</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1719">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:7">
+      <c r="A1720" s="1">
+        <v>1718</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1720">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:7">
+      <c r="A1721" s="1">
+        <v>1719</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1721">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:7">
+      <c r="A1722" s="1">
+        <v>1720</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1722">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:7">
+      <c r="A1723" s="1">
+        <v>1721</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1723">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:7">
+      <c r="A1724" s="1">
+        <v>1722</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1724">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:7">
+      <c r="A1725" s="1">
+        <v>1723</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1725">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:7">
+      <c r="A1726" s="1">
+        <v>1724</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1726">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:7">
+      <c r="A1727" s="1">
+        <v>1725</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1727">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:7">
+      <c r="A1728" s="1">
+        <v>1726</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1728">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:7">
+      <c r="A1729" s="1">
+        <v>1727</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1729">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:7">
+      <c r="A1730" s="1">
+        <v>1728</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1730">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:7">
+      <c r="A1731" s="1">
+        <v>1729</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1731">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:7">
+      <c r="A1732" s="1">
+        <v>1730</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1732">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:7">
+      <c r="A1733" s="1">
+        <v>1731</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1733">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:7">
+      <c r="A1734" s="1">
+        <v>1732</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1734">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:7">
+      <c r="A1735" s="1">
+        <v>1733</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1735">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:7">
+      <c r="A1736" s="1">
+        <v>1734</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1736">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:7">
+      <c r="A1737" s="1">
+        <v>1735</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1737">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:7">
+      <c r="A1738" s="1">
+        <v>1736</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1738">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:7">
+      <c r="A1739" s="1">
+        <v>1737</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1739">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:7">
+      <c r="A1740" s="1">
+        <v>1738</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1740">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:7">
+      <c r="A1741" s="1">
+        <v>1739</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1741">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:7">
+      <c r="A1742" s="1">
+        <v>1740</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1742">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:7">
+      <c r="A1743" s="1">
+        <v>1741</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1743">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:7">
+      <c r="A1744" s="1">
+        <v>1742</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1744">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:7">
+      <c r="A1745" s="1">
+        <v>1743</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1745">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:7">
+      <c r="A1746" s="1">
+        <v>1744</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1746">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:7">
+      <c r="A1747" s="1">
+        <v>1745</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1747">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:7">
+      <c r="A1748" s="1">
+        <v>1746</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1748">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:7">
+      <c r="A1749" s="1">
+        <v>1747</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1749">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:7">
+      <c r="A1750" s="1">
+        <v>1748</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1750">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:7">
+      <c r="A1751" s="1">
+        <v>1749</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1751">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:7">
+      <c r="A1752" s="1">
+        <v>1750</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1752">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:7">
+      <c r="A1753" s="1">
+        <v>1751</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1753">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:7">
+      <c r="A1754" s="1">
+        <v>1752</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1754">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:7">
+      <c r="A1755" s="1">
+        <v>1753</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1755">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:7">
+      <c r="A1756" s="1">
+        <v>1754</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1756">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:7">
+      <c r="A1757" s="1">
+        <v>1755</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1757">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:7">
+      <c r="A1758" s="1">
+        <v>1756</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1758">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:7">
+      <c r="A1759" s="1">
+        <v>1757</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1759">
+        <v>45129000000</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:7">
+      <c r="A1760" s="1">
+        <v>1758</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1760">
+        <v>45129000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
